--- a/biology/Botanique/Fontana_Rosa/Fontana_Rosa.xlsx
+++ b/biology/Botanique/Fontana_Rosa/Fontana_Rosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fontana Rosa est un jardin de style Belle Époque faisant partie des parcs et jardins de la ville de Menton (Alpes-Maritimes), dans les Alpes Maritimes.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé à partir de 1922 par l'écrivain, scénariste et homme politique d'origine espagnole Vicente Blasco Ibáñez (1869-1928), ce jardin de céramiques espagnoles et mentonnaises est classé monument historique depuis 1990 (classement par arrêté du 21 août 1990).
 Blasco Ibáñez s'y installa avec sa seconde épouse, Elena. Vicente Blasco Ibáñez, tout comme l'écrivain Jean Cocteau (qui y a laissé un mémorial) ont longtemps fréquenté Menton (Alpes-Maritimes).
@@ -545,7 +559,9 @@
           <t>Situation et style du Jardin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Encore appelé « Jardin des Romanciers » (El Jardín de los Novelistas), ce jardin se trouve avenue Blasco-Ibanez, au cœur du ravissant site de Garavan (accès par le boulevard de Garavan, long de 3 kilomètres, bordé de poivriers et de caroubiers).
 Il s'agit d'un jardin d'inspiration andalouse et arabo-persane, où se dressent des Ficus macrophylla, des palmiers, des bananiers, des Araucaria heterophylla et des portiques de roses odorantes.
@@ -578,7 +594,9 @@
           <t>Principaux édifices</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs édifices recouverts de céramiques polychromes sont répartis dans le jardin. Ces édifices très colorés reprennent des thèmes et scènes chers à l'écrivain espagnol (poissons, fruits, fleurs…). Les sculptures sont de Léopold Bernstamm et le décor céramique est l'œuvre de François et Eugène Donadoni (père et fils), de l'entreprise Saïssi à Menton.
 Les édifices principaux se composent d'une villa surélevée ornée de céramiques, qui comprend la bibliothèque et le cinéma personnels de l'écrivain, d'une villa basse. La villa principale, dite Villa Emilia, située dans la partie basse, a été construite à la fin du XIXe siècle. L'ensemble architectural se compose en outre d'un aquarium sur préau précédé au même niveau d'une terrasse à piliers, d'une colonnade et de bancs courbes devant le miroir d'eau, d'une pergola en béton, de piliers, vases, bancs revêtus de céramique disposés autour de la maison principale, et d'une grande pergola ronde en acier recouvrant un grand escalier au centre de la propriété.
@@ -613,7 +631,9 @@
           <t>Réhabilitation du Jardin et restauration des édifices</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Blasco Ibáñez termina sa vie à Fontana Rosa. À la mort de l'écrivain, le jardin fut légué à son fils. En 1939, la propriété fut saccagée par la guerre. La propriété abandonnée trente ans durant et diminuée d’une parcelle à bâtir, fut cédée en 1970 à la ville de Menton (Alpes-Maritimes) par le fils de l’écrivain. Depuis 1985, les municipalités ont procédé à la restauration progressive de Fontana Rosa.
 Depuis 1993 les éléments céramiques du jardin sont progressivement réhabilités :
@@ -653,9 +673,11 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'ensemble des bâtiments se trouvant dans le jardin des Romanciers a été classé le 21 août 1990[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'ensemble des bâtiments se trouvant dans le jardin des Romanciers a été classé le 21 août 1990.
 Le jardin a reçu le Label Patrimoine du XXe siècle le 1er mars 2001.</t>
         </is>
       </c>
